--- a/workshop-data/nodal-center-list.xlsx
+++ b/workshop-data/nodal-center-list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t xml:space="preserve">List of Nodal Centers </t>
   </si>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">Inactive</t>
   </si>
   <si>
-    <t xml:space="preserve">Others</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anurag College of Engineering</t>
   </si>
   <si>
@@ -208,7 +205,7 @@
     <t xml:space="preserve">Gandhi Nagar, Rushikonda, Visakhapatnam, Andhra Pradesh</t>
   </si>
   <si>
-    <t xml:space="preserve">GITAM UNIVERSITY</t>
+    <t xml:space="preserve">Gitam University</t>
   </si>
   <si>
     <t xml:space="preserve">Gitam university, Rudraram, Telangana</t>
@@ -242,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -310,18 +307,6 @@
       <name val="Accanthis ADF Std No2"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Accanthis ADF Std No2"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Accanthis ADF Std No2"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -415,7 +400,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -493,22 +478,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,23 +526,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:G65536"/>
+  <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="84.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -610,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="10" t="n">
         <v>1</v>
       </c>
@@ -628,7 +599,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="16" t="n">
         <v>2</v>
       </c>
@@ -636,559 +607,539 @@
         <v>12</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>500080</v>
+        <v>508206</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="16" t="n">
+      <c r="B10" s="10" t="n">
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>508206</v>
+        <v>506001</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="16" t="n">
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="18" t="n">
-        <v>506001</v>
+        <v>500075</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16" t="n">
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="10" t="n">
         <v>5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="18" t="n">
-        <v>500075</v>
+        <v>500104</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="16" t="n">
         <v>6</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="18" t="n">
-        <v>500104</v>
+        <v>500090</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="16" t="n">
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22" t="n">
-        <v>500090</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>15</v>
+      <c r="D14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="18" t="n">
+        <v>500075</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="16" t="n">
         <v>8</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="18" t="n">
-        <v>500075</v>
+        <v>500031</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="16" t="n">
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22" t="n">
-        <v>500031</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>15</v>
+      <c r="D16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <v>501401</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="22" t="n">
-        <v>501401</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>15</v>
+      <c r="D17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>501301</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="16" t="n">
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="10" t="n">
         <v>11</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="18" t="n">
-        <v>501301</v>
+        <v>500075</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="16" t="n">
         <v>12</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="18" t="n">
-        <v>500075</v>
+        <v>502401</v>
       </c>
       <c r="F19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="18" t="n">
+        <v>501510</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="18" t="n">
+        <v>501401</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="18" t="n">
-        <v>502401</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="18" t="n">
-        <v>501510</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="16" t="n">
-        <v>15</v>
-      </c>
       <c r="C22" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="18" t="n">
-        <v>501401</v>
+        <v>533437</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="16" t="n">
         <v>16</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="18" t="n">
-        <v>533437</v>
+        <v>500059</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="16" t="n">
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="10" t="n">
         <v>17</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="18" t="n">
-        <v>500059</v>
+        <v>501510</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="22" t="n">
-        <v>501510</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>15</v>
+      <c r="D25" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="18" t="n">
+        <v>500028</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="16" t="n">
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="22" t="n">
-        <v>500028</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>15</v>
+      <c r="D26" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="18" t="n">
+        <v>501218</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="16" t="n">
         <v>20</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="18" t="n">
-        <v>501218</v>
+        <v>500068</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="16" t="n">
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="10" t="n">
         <v>21</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28" s="18" t="n">
-        <v>500068</v>
+        <v>516126</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="16" t="n">
         <v>22</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" s="18" t="n">
-        <v>516126</v>
+        <v>517102</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="16" t="n">
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="10" t="n">
         <v>23</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="18" t="n">
-        <v>517102</v>
+        <v>500075</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="16" t="n">
         <v>24</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" s="18" t="n">
-        <v>500075</v>
+        <v>501510</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="16" t="n">
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="21" t="s">
+      <c r="C32" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="22" t="n">
-        <v>501510</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>15</v>
+      <c r="D32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="18" t="n">
+        <v>530045</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="16" t="n">
         <v>26</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" s="18" t="n">
-        <v>530045</v>
+        <v>502329</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="16" t="n">
+    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="10" t="n">
         <v>27</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" s="18" t="n">
-        <v>502329</v>
+        <v>517507</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="16" t="n">
         <v>28</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35" s="18" t="n">
-        <v>517507</v>
+        <v>500001</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="16" t="n">
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="10" t="n">
         <v>29</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E36" s="18" t="n">
-        <v>500001</v>
+        <v>501301</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="16" t="n">
-        <v>30</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="17" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="16"/>
+      <c r="C39" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="18" t="n">
-        <v>501301</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="14"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="26" t="n">
+        <f aca="false">COUNTIF(F8:F36,F9)</f>
+        <v>28</v>
+      </c>
       <c r="G39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="16"/>
-      <c r="C40" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="30" t="n">
-        <f aca="false">COUNTIF(F8:F37,F10)</f>
-        <v>28</v>
-      </c>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="25"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="21"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
